--- a/Blockpower/evidence.xlsx
+++ b/Blockpower/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiger/dev/GitHub/gon-evidence/Blockpower/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9F6240-C120-0F43-98FB-2E73D2413953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7576504C-6891-9543-8132-9DE760BA8A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26460" yWindow="7920" windowWidth="42960" windowHeight="15260" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27860" yWindow="4700" windowWidth="42960" windowHeight="15260" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="57">
   <si>
     <t>TeamName</t>
   </si>
@@ -82,15 +82,9 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>dest chain id</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
     <t>tx hash on that chain</t>
   </si>
   <si>
@@ -208,6 +202,43 @@
   <si>
     <t>852B88402ACB856C89977507543CE74F41866343313D47A493DDA3CE999785AF</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bptaska7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/6BE1FAFF3DEDC87A4981EFCF5667DEBDD736AB0E20F6968816DDE7D01D88B997</t>
+  </si>
+  <si>
+    <t>bptaska8</t>
+  </si>
+  <si>
+    <t>ibc/DCF8F49DCEED9C6CFC55BB4347196C53C36D149D07E045798A2D804E9E0E4B0F</t>
+  </si>
+  <si>
+    <t>bptaska9</t>
+  </si>
+  <si>
+    <t>ibc/E61DFB9DEBBDDA4E1FAD0A7E2E47F1099024EC0C729183FE62FBCA85D2F866B0</t>
+  </si>
+  <si>
+    <t>bptaska10</t>
+  </si>
+  <si>
+    <t>ibc/DC312459FCB431C0024BF318A0B98421DD75B026292C9589EDB7C0C6DFBAE086</t>
+  </si>
+  <si>
+    <t>bptask11</t>
+  </si>
+  <si>
+    <t>ibc/196CF8E19F258DF7AC7449DA0BF6B1CE368F2CA9D6D8563625CAAFF616F71C1C</t>
+  </si>
+  <si>
+    <t>bptaska12</t>
+  </si>
+  <si>
+    <t>ibc/493B6D2E64E680578A96F085CAEFBE2E23CDE183F58A242F43970EA0028DD201</t>
   </si>
 </sst>
 </file>
@@ -291,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -306,7 +337,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -658,25 +688,25 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -692,7 +722,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -710,10 +742,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +761,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -747,10 +781,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -766,7 +800,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -784,10 +820,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +839,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -821,10 +859,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -858,20 +896,20 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -905,20 +943,20 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -952,20 +990,20 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -999,20 +1037,20 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1046,20 +1084,20 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1093,20 +1131,20 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1141,10 +1179,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1178,20 +1216,20 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1225,20 +1263,20 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1268,12 +1306,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1303,12 +1341,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1338,12 +1376,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1373,12 +1411,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1417,57 +1455,57 @@
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
-        <v>38</v>
+      <c r="A6" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1514,16 +1552,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1566,16 +1604,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1618,16 +1656,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1643,7 +1681,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1671,16 +1709,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1696,7 +1734,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -1714,10 +1754,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1733,7 +1773,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -1751,10 +1793,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Blockpower/evidence.xlsx
+++ b/Blockpower/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiger/dev/GitHub/gon-evidence/Blockpower/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7576504C-6891-9543-8132-9DE760BA8A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAACF40-1BCD-DC4F-9EEA-CACE40681FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27860" yWindow="4700" windowWidth="42960" windowHeight="15260" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21700" yWindow="8420" windowWidth="42960" windowHeight="15260" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="96">
   <si>
     <t>TeamName</t>
   </si>
@@ -85,15 +85,6 @@
     <t>dest chain id</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
   </si>
   <si>
@@ -239,13 +230,139 @@
   </si>
   <si>
     <t>ibc/493B6D2E64E680578A96F085CAEFBE2E23CDE183F58A242F43970EA0028DD201</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gon-irishub-1</t>
+  </si>
+  <si>
+    <t>A91D93CDAE553F0230DC2805924FAA3CB8FB94C40DFFC6306D35A6CDC23D45AC</t>
+  </si>
+  <si>
+    <t>4CBAC1928CEE97DED3310DC95D70033B345DB2BADC1DB150DEEE7B84A80AED4D</t>
+  </si>
+  <si>
+    <t>F53513DAF1E22F71455FE075B6E082817D6DC0BF80ABFEDCD131D3F943DD3A80</t>
+  </si>
+  <si>
+    <t>E89C198B280EDE8CD3086632D7C635068A4CE76506388823F5C44A97173A5F87</t>
+  </si>
+  <si>
+    <t>016990652015E522C99FF4EAF05AD1F0309B563A02B3E9E1F79A24D41C15CDC5</t>
+  </si>
+  <si>
+    <t>2D7A3BE07C38BD6807E5FE198351CDE3F00ADD37EFD9E110691FE7EBFECAEF10</t>
+  </si>
+  <si>
+    <t>98749BAE986770AC91047379F52B2AF9DABA2E08D7A4F4A635F9E00E3D027EA6</t>
+  </si>
+  <si>
+    <t>81CAC383608D7F5B9C5B66EBAB5B7FBD974F65E7A74BE9938694B864B47CFBEF</t>
+  </si>
+  <si>
+    <t>40A4354D5ACFFCB7D82D25D2ACDA25F7D5DE20F04DA795A18CA9CC07C41572CE</t>
+  </si>
+  <si>
+    <t>504C5551692804B75819D455DB4BA4BB2CFD9635A1EE2CDDD684484332B4CF4B</t>
+  </si>
+  <si>
+    <t>DDF52B632101CB97E4BEBCA39D1555D078A2AEA0CE37E345F5DC6E99CAC86D40</t>
+  </si>
+  <si>
+    <t>E55B46A9725CE87834F37DE721D502CDF668640A5DEA72CD35AE875FB545BC32</t>
+  </si>
+  <si>
+    <t>6F711F310513FBB4BE20DCC3333EE684766099BDF778DACF1A038C1BCB205B06</t>
+  </si>
+  <si>
+    <t>9C17F9A7685C4640882F4256FB150B5120D8BE174EAD01B6C063C1AF44DD2AEE</t>
+  </si>
+  <si>
+    <t>989E45B269D796C96A3BC3BE1097F964DE34BBC7390C64F2FCFBB25C5A89F527</t>
+  </si>
+  <si>
+    <t>1724546808042F67EC0CF7BD3B2B7ADDA55D18FB4910DE6DD2FF7C5509FDA4CE</t>
+  </si>
+  <si>
+    <t>E7C78CB97F06CF210B824816CA980D441D5D5E69E05923EE870332A0A4288919</t>
+  </si>
+  <si>
+    <t>2D78139938152807EF4A687C59F9A3762658DB31DB728FA6AEA4AEC63D90BCB2</t>
+  </si>
+  <si>
+    <t>0AC2125B67CB2BA9D08650F883B30A9C7F9CA91C0BB930EA63C13EBF68468A23</t>
+  </si>
+  <si>
+    <t>B55CAAC648F049DE2FC89D29935D67329144E5646081EBCAED3040940D59A5EC</t>
+  </si>
+  <si>
+    <t>0F98D8FE831497F1A199CC872FC260A017B1698C91D8E67767E0A6E5B0940D83</t>
+  </si>
+  <si>
+    <t>3EBB8196901F619956E22B028A941A7FAE2E71925E2B648F5F2026FD383CF3FD</t>
+  </si>
+  <si>
+    <t>E94D58C27A6791D08FE83C79C0AAF8A621E8213C6863CEFDD0AEB3E6A0AE3879</t>
+  </si>
+  <si>
+    <t>B548B6468385C6210F3F8715FD2490DF53731CEB161A7DD668479480518A166F</t>
+  </si>
+  <si>
+    <t>6CF576293B7745B6579EBB9762A0C56D6337AD620FB29756B4C31D2EBEA5F6A0</t>
+  </si>
+  <si>
+    <t>7CAD939E02D48B70683CAA523B828D422A1E62A00713831920084329F2A3DD40</t>
+  </si>
+  <si>
+    <t>B4A4D0693956339F9B6E119943482F05A7C606C68983E1441560691ED29F930F</t>
+  </si>
+  <si>
+    <t>0DA12E98D612808F65F7BDA79B3B56392F9F32D57E1008981F45B8619ACE78A3</t>
+  </si>
+  <si>
+    <t>350E2155DD758ABAFE03608BCD3595229583F8A60D1CD38C790CE578BB51FF14</t>
+  </si>
+  <si>
+    <t>6E9FAF0185D504522C436E893AC62D792F247F8285C773A0DD27CB5117124550</t>
+  </si>
+  <si>
+    <t>64D74121E5E9E9968ACDFC013DA9732CA9BCC47FCFDA0533240E5022339791DC</t>
+  </si>
+  <si>
+    <t>5CB4D59F1F93DEF202692615BF631096B874092F738604814A8ECF9DDC980A0B</t>
+  </si>
+  <si>
+    <t>54AF52CC76B4FD8FC8380729B64F041B33B936A1E2577193C8EBC3DF3B12B98A</t>
+  </si>
+  <si>
+    <t>019067DBD6AEEA164D39FF234E03EB51DFAC31EB48164AE56D14ACA4A30B4750</t>
+  </si>
+  <si>
+    <t>2FD68ABB5AD9F523D4628840F67DC84436E3B0F803EBA5152C733601BFE8F194</t>
+  </si>
+  <si>
+    <t>B328E5E395E11EFAE6F4B9B13AA2301864B9884C76A80425944488503C07A71A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,8 +391,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +415,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -322,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -337,6 +466,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -688,25 +820,25 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -742,10 +874,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -781,10 +913,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -820,10 +952,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -839,7 +971,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -859,10 +991,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -876,14 +1008,393 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
@@ -891,41 +1402,33 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
@@ -934,231 +1437,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+    </row>
+    <row r="2" spans="1:1" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1167,270 +1731,91 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="17.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.5" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1440,9 +1825,10 @@
   <cols>
     <col min="1" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1">
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1452,81 +1838,39 @@
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1">
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1555,30 +1899,30 @@
         <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1604,65 +1948,13 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -1709,16 +2001,16 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1754,10 +2046,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1793,10 +2085,10 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
